--- a/diary.xlsx
+++ b/diary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA29D2-0EE0-4FDF-8639-6277D2BFBD11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Hash-based</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +367,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43541</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>